--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H2">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>451.3307449639535</v>
+        <v>6.073419303341554</v>
       </c>
       <c r="R2">
-        <v>4061.976704675581</v>
+        <v>54.66077373007399</v>
       </c>
       <c r="S2">
-        <v>0.007910856619711996</v>
+        <v>0.0001263992034214399</v>
       </c>
       <c r="T2">
-        <v>0.007910856619711996</v>
+        <v>0.0001263992034214399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H3">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>6742.259464659243</v>
+        <v>768.3301332847115</v>
       </c>
       <c r="R3">
-        <v>60680.33518193319</v>
+        <v>6914.971199562403</v>
       </c>
       <c r="S3">
-        <v>0.1181772979416133</v>
+        <v>0.01599038563967476</v>
       </c>
       <c r="T3">
-        <v>0.1181772979416133</v>
+        <v>0.01599038563967476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H4">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>860.9195137899657</v>
+        <v>146.3298152811548</v>
       </c>
       <c r="R4">
-        <v>7748.275624109692</v>
+        <v>1316.968337530393</v>
       </c>
       <c r="S4">
-        <v>0.01509006623346373</v>
+        <v>0.003045396862055621</v>
       </c>
       <c r="T4">
-        <v>0.01509006623346373</v>
+        <v>0.003045396862055621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>2462.922766664807</v>
+        <v>290.8350438394937</v>
       </c>
       <c r="R5">
-        <v>22166.30489998326</v>
+        <v>2617.515394555444</v>
       </c>
       <c r="S5">
-        <v>0.04316973547650912</v>
+        <v>0.00605282066530887</v>
       </c>
       <c r="T5">
-        <v>0.04316973547650912</v>
+        <v>0.00605282066530887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>36792.67260110271</v>
@@ -818,10 +818,10 @@
         <v>331134.0534099244</v>
       </c>
       <c r="S6">
-        <v>0.6448963666912959</v>
+        <v>0.7657242611203395</v>
       </c>
       <c r="T6">
-        <v>0.6448963666912959</v>
+        <v>0.7657242611203395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>4698.058562238324</v>
+        <v>7007.228731746651</v>
       </c>
       <c r="R7">
-        <v>42282.52706014492</v>
+        <v>63065.05858571986</v>
       </c>
       <c r="S7">
-        <v>0.08234685558557724</v>
+        <v>0.1458335223779614</v>
       </c>
       <c r="T7">
-        <v>0.08234685558557724</v>
+        <v>0.1458335223779614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H8">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>282.6329657832867</v>
+        <v>20.03975271239244</v>
       </c>
       <c r="R8">
-        <v>2543.696692049581</v>
+        <v>180.357774411532</v>
       </c>
       <c r="S8">
-        <v>0.004953947616606798</v>
+        <v>0.0004170646966883054</v>
       </c>
       <c r="T8">
-        <v>0.004953947616606798</v>
+        <v>0.0004170646966883054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H9">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>4222.147083574531</v>
+        <v>2535.169252028052</v>
       </c>
       <c r="R9">
-        <v>37999.32375217079</v>
+        <v>22816.52326825247</v>
       </c>
       <c r="S9">
-        <v>0.07400515160597115</v>
+        <v>0.05276160890432307</v>
       </c>
       <c r="T9">
-        <v>0.07400515160597115</v>
+        <v>0.05276160890432308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H10">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>539.1262133108102</v>
+        <v>482.8274101001082</v>
       </c>
       <c r="R10">
-        <v>4852.135919797292</v>
+        <v>4345.446690900974</v>
       </c>
       <c r="S10">
-        <v>0.009449722229250555</v>
+        <v>0.01004854053022699</v>
       </c>
       <c r="T10">
-        <v>0.009449722229250555</v>
+        <v>0.01004854053022699</v>
       </c>
     </row>
   </sheetData>
